--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_9_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_9_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_0</t>
+          <t>model_9_9_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9581110185853253</v>
+        <v>0.9754689788539849</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8034016546949407</v>
+        <v>0.8582219942145168</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8336839717384272</v>
+        <v>0.9325427451086986</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6962783437606845</v>
+        <v>0.9910616622385633</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9144217730267736</v>
+        <v>0.9733817608545324</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2801118116009537</v>
+        <v>0.1640390513583696</v>
       </c>
       <c r="H2" t="n">
-        <v>1.314654040307073</v>
+        <v>0.9480701775152152</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2695094088236326</v>
+        <v>0.3901646188183361</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1995675237189775</v>
+        <v>0.1085493224867996</v>
       </c>
       <c r="K2" t="n">
-        <v>0.234538466271305</v>
+        <v>0.2493569706525679</v>
       </c>
       <c r="L2" t="n">
-        <v>2.209366611226861</v>
+        <v>0.782057991653365</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5292559036996694</v>
+        <v>0.4050173469845083</v>
       </c>
       <c r="N2" t="n">
-        <v>1.201067110790438</v>
+        <v>1.117748901500873</v>
       </c>
       <c r="O2" t="n">
-        <v>0.5517874232309207</v>
+        <v>0.4222597739471284</v>
       </c>
       <c r="P2" t="n">
-        <v>60.54513285675298</v>
+        <v>61.6153015229294</v>
       </c>
       <c r="Q2" t="n">
-        <v>95.8925317779308</v>
+        <v>96.96270044410721</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_1</t>
+          <t>model_9_9_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9587959772511483</v>
+        <v>0.9754016956319802</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8032095312182885</v>
+        <v>0.8580159445027817</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8305428390521942</v>
+        <v>0.933740666108665</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7088184387848455</v>
+        <v>0.9911405620407361</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9149963976018746</v>
+        <v>0.9738027094994647</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2755314898486507</v>
+        <v>0.1644889745737251</v>
       </c>
       <c r="H3" t="n">
-        <v>1.315938770880094</v>
+        <v>0.9494480328863592</v>
       </c>
       <c r="I3" t="n">
-        <v>0.2745995064056397</v>
+        <v>0.3832359883681423</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1913277566172185</v>
+        <v>0.1075911443222707</v>
       </c>
       <c r="K3" t="n">
-        <v>0.2329636315114291</v>
+        <v>0.2454135663452065</v>
       </c>
       <c r="L3" t="n">
-        <v>2.190736018033414</v>
+        <v>0.7915133182002663</v>
       </c>
       <c r="M3" t="n">
-        <v>0.5249109351581949</v>
+        <v>0.4055724036146014</v>
       </c>
       <c r="N3" t="n">
-        <v>1.197779309194488</v>
+        <v>1.118071860966495</v>
       </c>
       <c r="O3" t="n">
-        <v>0.5472574803833108</v>
+        <v>0.4228384604870902</v>
       </c>
       <c r="P3" t="n">
-        <v>60.57810671239989</v>
+        <v>61.60982346978169</v>
       </c>
       <c r="Q3" t="n">
-        <v>95.9255056335777</v>
+        <v>96.9572223909595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_2</t>
+          <t>model_9_9_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9594526713112007</v>
+        <v>0.9753224954362955</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8030040124850263</v>
+        <v>0.8577985450316032</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8273489325152701</v>
+        <v>0.9349143484666314</v>
       </c>
       <c r="E4" t="n">
-        <v>0.720456781424608</v>
+        <v>0.9912078710805394</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9154473215290422</v>
+        <v>0.9742086625520203</v>
       </c>
       <c r="G4" t="n">
-        <v>0.271140173645282</v>
+        <v>0.1650185866469524</v>
       </c>
       <c r="H4" t="n">
-        <v>1.317313075595745</v>
+        <v>0.9509017841511624</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2797751221992694</v>
+        <v>0.376447551297176</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1836805073246613</v>
+        <v>0.1067737271622912</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2317278147619653</v>
+        <v>0.2416106392297336</v>
       </c>
       <c r="L4" t="n">
-        <v>2.172304359754865</v>
+        <v>0.8010799910446792</v>
       </c>
       <c r="M4" t="n">
-        <v>0.5207112190507153</v>
+        <v>0.4062247981683939</v>
       </c>
       <c r="N4" t="n">
-        <v>1.194627177706236</v>
+        <v>1.118452021905782</v>
       </c>
       <c r="O4" t="n">
-        <v>0.542878973666525</v>
+        <v>0.4235186288276805</v>
       </c>
       <c r="P4" t="n">
-        <v>60.6102386918089</v>
+        <v>61.60339433016102</v>
       </c>
       <c r="Q4" t="n">
-        <v>95.95763761298672</v>
+        <v>96.95079325133884</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_3</t>
+          <t>model_9_9_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9600820169401671</v>
+        <v>0.9752309319417933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8027860300578218</v>
+        <v>0.8575694672848783</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8241055942330129</v>
+        <v>0.9360623041630998</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7312414279019884</v>
+        <v>0.9912632501015433</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9157812936607573</v>
+        <v>0.9745989407490557</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2669317365265134</v>
+        <v>0.1656308721562991</v>
       </c>
       <c r="H5" t="n">
-        <v>1.318770725090178</v>
+        <v>0.9524336280983181</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2850308404376308</v>
+        <v>0.3698079141305781</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1765941993599124</v>
+        <v>0.106101191018503</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2308125198987716</v>
+        <v>0.2379545525745405</v>
       </c>
       <c r="L5" t="n">
-        <v>2.154085732265809</v>
+        <v>0.8107563819726566</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5166543685352069</v>
+        <v>0.406977729312427</v>
       </c>
       <c r="N5" t="n">
-        <v>1.191606318687198</v>
+        <v>1.118891526679392</v>
       </c>
       <c r="O5" t="n">
-        <v>0.5386494146257331</v>
+        <v>0.4243036138092974</v>
       </c>
       <c r="P5" t="n">
-        <v>60.64152464342132</v>
+        <v>61.5959872566831</v>
       </c>
       <c r="Q5" t="n">
-        <v>95.98892356459913</v>
+        <v>96.94338617786092</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_4</t>
+          <t>model_9_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9606851677072216</v>
+        <v>0.975126637393907</v>
       </c>
       <c r="C6" t="n">
-        <v>0.802556472189438</v>
+        <v>0.85732840751126</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8208160091673673</v>
+        <v>0.9371829773850547</v>
       </c>
       <c r="E6" t="n">
-        <v>0.741214625485963</v>
+        <v>0.9913063170074929</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9160043200362905</v>
+        <v>0.9749728161309866</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2628984645699665</v>
+        <v>0.1663282902782473</v>
       </c>
       <c r="H6" t="n">
-        <v>1.320305779613077</v>
+        <v>0.9540455959144813</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2903614999993348</v>
+        <v>0.3633260755030124</v>
       </c>
       <c r="J6" t="n">
-        <v>0.170041073152061</v>
+        <v>0.1055781761596767</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2302012865756979</v>
+        <v>0.2344521258313445</v>
       </c>
       <c r="L6" t="n">
-        <v>2.136070623604567</v>
+        <v>0.8205449527360966</v>
       </c>
       <c r="M6" t="n">
-        <v>0.5127362524436578</v>
+        <v>0.4078336551564219</v>
       </c>
       <c r="N6" t="n">
-        <v>1.188711195005336</v>
+        <v>1.119392140509246</v>
       </c>
       <c r="O6" t="n">
-        <v>0.5345644962205485</v>
+        <v>0.425195978188482</v>
       </c>
       <c r="P6" t="n">
-        <v>60.67197477524207</v>
+        <v>61.58758358265362</v>
       </c>
       <c r="Q6" t="n">
-        <v>96.01937369641988</v>
+        <v>96.93498250383143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_5</t>
+          <t>model_9_9_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9612631299503327</v>
+        <v>0.9750091272235233</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8023161801210765</v>
+        <v>0.8570750032583869</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8174833099441727</v>
+        <v>0.9382747848267208</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7504194085143852</v>
+        <v>0.9913367786463591</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9161224855733163</v>
+        <v>0.9753296099032163</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2590336283890108</v>
+        <v>0.1671140813286883</v>
       </c>
       <c r="H7" t="n">
-        <v>1.321912613780654</v>
+        <v>0.9557401113202635</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2957620245718525</v>
+        <v>0.3570111930639467</v>
       </c>
       <c r="J7" t="n">
-        <v>0.163992851967908</v>
+        <v>0.1052082426945281</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2298774382698802</v>
+        <v>0.2311097178792374</v>
       </c>
       <c r="L7" t="n">
-        <v>2.118251777348405</v>
+        <v>0.8304452499635864</v>
       </c>
       <c r="M7" t="n">
-        <v>0.5089534638736737</v>
+        <v>0.4087958920154265</v>
       </c>
       <c r="N7" t="n">
-        <v>1.185936976238403</v>
+        <v>1.119956189327088</v>
       </c>
       <c r="O7" t="n">
-        <v>0.5306206665096881</v>
+        <v>0.4261991794626793</v>
       </c>
       <c r="P7" t="n">
-        <v>60.70159477274238</v>
+        <v>61.5781571561163</v>
       </c>
       <c r="Q7" t="n">
-        <v>96.04899369392018</v>
+        <v>96.92555607729412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_6</t>
+          <t>model_9_9_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9618168818561755</v>
+        <v>0.9748780140488982</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8020657978500739</v>
+        <v>0.8568089330042986</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8141100951288391</v>
+        <v>0.9393361153099383</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7588969920974052</v>
+        <v>0.9913542240150186</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9161414992191168</v>
+        <v>0.9756685582775677</v>
       </c>
       <c r="G8" t="n">
-        <v>0.255330686844847</v>
+        <v>0.1679908357311265</v>
       </c>
       <c r="H8" t="n">
-        <v>1.323586921179753</v>
+        <v>0.9575193243344926</v>
       </c>
       <c r="I8" t="n">
-        <v>0.301228203269229</v>
+        <v>0.3508725856733537</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1584224544409996</v>
+        <v>0.1049963819437856</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2298253288551143</v>
+        <v>0.2279344838085696</v>
       </c>
       <c r="L8" t="n">
-        <v>2.100631032428453</v>
+        <v>0.8404638661413074</v>
       </c>
       <c r="M8" t="n">
-        <v>0.505302569600479</v>
+        <v>0.409866851222597</v>
       </c>
       <c r="N8" t="n">
-        <v>1.183278967090357</v>
+        <v>1.120585532565289</v>
       </c>
       <c r="O8" t="n">
-        <v>0.5268143461088907</v>
+        <v>0.4273157316204903</v>
       </c>
       <c r="P8" t="n">
-        <v>60.73039152560157</v>
+        <v>61.56769170057245</v>
       </c>
       <c r="Q8" t="n">
-        <v>96.07779044677939</v>
+        <v>96.91509062175027</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_7</t>
+          <t>model_9_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.962347354336746</v>
+        <v>0.9747327757122939</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8018060815019062</v>
+        <v>0.8565297983264913</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8106997963363496</v>
+        <v>0.9403650786175937</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7666832351462562</v>
+        <v>0.9913583313615216</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9160666741201019</v>
+        <v>0.9759888691756389</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2517834149246709</v>
+        <v>0.1689620451567607</v>
       </c>
       <c r="H9" t="n">
-        <v>1.325323645595834</v>
+        <v>0.9593858992102873</v>
       </c>
       <c r="I9" t="n">
-        <v>0.306754475277302</v>
+        <v>0.3449211861188312</v>
       </c>
       <c r="J9" t="n">
-        <v>0.153306318622522</v>
+        <v>0.1049465013404773</v>
       </c>
       <c r="K9" t="n">
-        <v>0.230030396949912</v>
+        <v>0.2249338437296542</v>
       </c>
       <c r="L9" t="n">
-        <v>2.083205117377163</v>
+        <v>0.8506004873635541</v>
       </c>
       <c r="M9" t="n">
-        <v>0.5017802456500963</v>
+        <v>0.411049930247848</v>
       </c>
       <c r="N9" t="n">
-        <v>1.180732699183619</v>
+        <v>1.121282676580989</v>
       </c>
       <c r="O9" t="n">
-        <v>0.5231420695357243</v>
+        <v>0.4285491767691574</v>
       </c>
       <c r="P9" t="n">
-        <v>60.7583720512136</v>
+        <v>61.55616234830652</v>
       </c>
       <c r="Q9" t="n">
-        <v>96.10577097239141</v>
+        <v>96.90356126948433</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_8</t>
+          <t>model_9_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9628554653010303</v>
+        <v>0.9745729452329973</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8015376508225889</v>
+        <v>0.8562372522649584</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8072551297670423</v>
+        <v>0.9413599375408599</v>
       </c>
       <c r="E10" t="n">
-        <v>0.773816486808743</v>
+        <v>0.9913486484074328</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9159034104398589</v>
+        <v>0.9762897131486654</v>
       </c>
       <c r="G10" t="n">
-        <v>0.248385674566866</v>
+        <v>0.1700308323077687</v>
       </c>
       <c r="H10" t="n">
-        <v>1.327118642784439</v>
+        <v>0.9613421560708089</v>
       </c>
       <c r="I10" t="n">
-        <v>0.3123364390867578</v>
+        <v>0.3391670422065177</v>
       </c>
       <c r="J10" t="n">
-        <v>0.1486192462946105</v>
+        <v>0.105064093462645</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2304778426906842</v>
+        <v>0.2221155678345813</v>
       </c>
       <c r="L10" t="n">
-        <v>2.065970772822094</v>
+        <v>0.8608561718800513</v>
       </c>
       <c r="M10" t="n">
-        <v>0.4983830600721357</v>
+        <v>0.4123479505317915</v>
       </c>
       <c r="N10" t="n">
-        <v>1.178293766555055</v>
+        <v>1.122049862881613</v>
       </c>
       <c r="O10" t="n">
-        <v>0.5196002587345664</v>
+        <v>0.4299024564638607</v>
       </c>
       <c r="P10" t="n">
-        <v>60.78554520282332</v>
+        <v>61.54355098372101</v>
       </c>
       <c r="Q10" t="n">
-        <v>96.13294412400113</v>
+        <v>96.89094990489883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_9</t>
+          <t>model_9_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9633421360708725</v>
+        <v>0.9743980726317465</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8012610479445318</v>
+        <v>0.8559309384941514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8037799762183959</v>
+        <v>0.9423189542472556</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7803303381177129</v>
+        <v>0.9913248613482661</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9156568822549772</v>
+        <v>0.9765703503119256</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2451313048880188</v>
+        <v>0.1712002061975469</v>
       </c>
       <c r="H11" t="n">
-        <v>1.328968287503645</v>
+        <v>0.96339047766664</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3179678059986348</v>
+        <v>0.3336202053496927</v>
       </c>
       <c r="J11" t="n">
-        <v>0.1443391656717771</v>
+        <v>0.1053529692274016</v>
       </c>
       <c r="K11" t="n">
-        <v>0.231153485835206</v>
+        <v>0.2194865872885471</v>
       </c>
       <c r="L11" t="n">
-        <v>2.048921410143127</v>
+        <v>0.871235024232373</v>
       </c>
       <c r="M11" t="n">
-        <v>0.4951073670306461</v>
+        <v>0.4137634664848347</v>
       </c>
       <c r="N11" t="n">
-        <v>1.175957746859812</v>
+        <v>1.122889251367617</v>
       </c>
       <c r="O11" t="n">
-        <v>0.5161851126586811</v>
+        <v>0.431378233861547</v>
       </c>
       <c r="P11" t="n">
-        <v>60.81192254736523</v>
+        <v>61.5298432217006</v>
       </c>
       <c r="Q11" t="n">
-        <v>96.15932146854304</v>
+        <v>96.8772421428784</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_10</t>
+          <t>model_9_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9638080875070448</v>
+        <v>0.9742076266500845</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8009768351070065</v>
+        <v>0.8556104405107734</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8002759774825288</v>
+        <v>0.9432399659175739</v>
       </c>
       <c r="E12" t="n">
-        <v>0.786255201853396</v>
+        <v>0.9912865926202621</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9153312207116883</v>
+        <v>0.9768298682564253</v>
       </c>
       <c r="G12" t="n">
-        <v>0.242015485488825</v>
+        <v>0.1724737193538439</v>
       </c>
       <c r="H12" t="n">
-        <v>1.330868820056857</v>
+        <v>0.9655336491572466</v>
       </c>
       <c r="I12" t="n">
-        <v>0.323645915545221</v>
+        <v>0.328293185033553</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1404460933148591</v>
+        <v>0.1058177138598092</v>
       </c>
       <c r="K12" t="n">
-        <v>0.2320460044300401</v>
+        <v>0.2170554494466811</v>
       </c>
       <c r="L12" t="n">
-        <v>2.032064162460328</v>
+        <v>0.8817364994901021</v>
       </c>
       <c r="M12" t="n">
-        <v>0.4919506941643898</v>
+        <v>0.4152995537607088</v>
       </c>
       <c r="N12" t="n">
-        <v>1.173721179966185</v>
+        <v>1.123803392079594</v>
       </c>
       <c r="O12" t="n">
-        <v>0.5128940536932947</v>
+        <v>0.4329797155528941</v>
       </c>
       <c r="P12" t="n">
-        <v>60.83750713049891</v>
+        <v>61.51502081137864</v>
       </c>
       <c r="Q12" t="n">
-        <v>96.18490605167672</v>
+        <v>96.86241973255646</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_11</t>
+          <t>model_9_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9642541614496353</v>
+        <v>0.9740011195984059</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8006854910424324</v>
+        <v>0.8552753652140934</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7967465193998797</v>
+        <v>0.9441209779030773</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7916244738286962</v>
+        <v>0.9912334513891495</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9149314301566399</v>
+        <v>0.9770673978869067</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2390325869807408</v>
+        <v>0.1738546329592966</v>
       </c>
       <c r="H13" t="n">
-        <v>1.33281703915818</v>
+        <v>0.9677742992090252</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3293652810884294</v>
+        <v>0.3231975180656013</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1369180857122664</v>
+        <v>0.1064630737452082</v>
       </c>
       <c r="K13" t="n">
-        <v>0.2331416834003479</v>
+        <v>0.2148302959054047</v>
       </c>
       <c r="L13" t="n">
-        <v>2.015387651417623</v>
+        <v>0.8923614103457297</v>
       </c>
       <c r="M13" t="n">
-        <v>0.4889095897819358</v>
+        <v>0.4169587904809018</v>
       </c>
       <c r="N13" t="n">
-        <v>1.171580025041751</v>
+        <v>1.124794625927652</v>
       </c>
       <c r="O13" t="n">
-        <v>0.5097234832013257</v>
+        <v>0.4347095894153593</v>
       </c>
       <c r="P13" t="n">
-        <v>60.86231077829062</v>
+        <v>61.49907154341413</v>
       </c>
       <c r="Q13" t="n">
-        <v>96.20970969946843</v>
+        <v>96.84647046459195</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9646812230358193</v>
+        <v>0.9737780042090208</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8003874638265015</v>
+        <v>0.854925276479375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7931943340352821</v>
+        <v>0.9449601901772208</v>
       </c>
       <c r="E14" t="n">
-        <v>0.796465765767884</v>
+        <v>0.9911649773695344</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9144616282809873</v>
+        <v>0.9772820851723303</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2361768241874906</v>
+        <v>0.175346606595466</v>
       </c>
       <c r="H14" t="n">
-        <v>1.3348099485234</v>
+        <v>0.9701153441900979</v>
       </c>
       <c r="I14" t="n">
-        <v>0.3351214754110777</v>
+        <v>0.3183436155820733</v>
       </c>
       <c r="J14" t="n">
-        <v>0.1337369999251434</v>
+        <v>0.1072946387000746</v>
       </c>
       <c r="K14" t="n">
-        <v>0.2344292376681106</v>
+        <v>0.2128191271410739</v>
       </c>
       <c r="L14" t="n">
-        <v>1.998885895548857</v>
+        <v>0.9031126411676711</v>
       </c>
       <c r="M14" t="n">
-        <v>0.4859802713974</v>
+        <v>0.4187440824602373</v>
       </c>
       <c r="N14" t="n">
-        <v>1.169530129428068</v>
+        <v>1.1258655797967</v>
       </c>
       <c r="O14" t="n">
-        <v>0.5066694576686352</v>
+        <v>0.4365708849703188</v>
       </c>
       <c r="P14" t="n">
-        <v>60.88634899895242</v>
+        <v>61.4819813095238</v>
       </c>
       <c r="Q14" t="n">
-        <v>96.23374792013024</v>
+        <v>96.82938023070162</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_13</t>
+          <t>model_9_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9650898258497641</v>
+        <v>0.9735377267328011</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8000832213208617</v>
+        <v>0.8545597320443902</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7896214135600137</v>
+        <v>0.9457554517050589</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8008063897967865</v>
+        <v>0.9910808090434365</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9139256781210983</v>
+        <v>0.9774730317422043</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2334444952891989</v>
+        <v>0.1769533431853233</v>
       </c>
       <c r="H15" t="n">
-        <v>1.33684441955952</v>
+        <v>0.9725597415100184</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3409112702680651</v>
+        <v>0.3137439189094194</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1308848898729032</v>
+        <v>0.1083167990856657</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2358980800704842</v>
+        <v>0.2110303589975425</v>
       </c>
       <c r="L15" t="n">
-        <v>1.982565371339918</v>
+        <v>0.9154100740372457</v>
       </c>
       <c r="M15" t="n">
-        <v>0.4831609413944787</v>
+        <v>0.4206582260996726</v>
       </c>
       <c r="N15" t="n">
-        <v>1.167568835921132</v>
+        <v>1.127018911682554</v>
       </c>
       <c r="O15" t="n">
-        <v>0.5037301029506718</v>
+        <v>0.4385665176673085</v>
       </c>
       <c r="P15" t="n">
-        <v>60.90962187534201</v>
+        <v>61.4637383579587</v>
       </c>
       <c r="Q15" t="n">
-        <v>96.25702079651983</v>
+        <v>96.81113727913652</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_14</t>
+          <t>model_9_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9654807685392119</v>
+        <v>0.9732797346815446</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7997731375593891</v>
+        <v>0.8541782994775599</v>
       </c>
       <c r="D16" t="n">
-        <v>0.7860305764626173</v>
+        <v>0.9465042356107229</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8046740564695267</v>
+        <v>0.9909804863885295</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9133277347655455</v>
+        <v>0.977639159352244</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2308302597247357</v>
+        <v>0.17867853722002</v>
       </c>
       <c r="H16" t="n">
-        <v>1.338917951100292</v>
+        <v>0.9751103828407484</v>
       </c>
       <c r="I16" t="n">
-        <v>0.3467300983955576</v>
+        <v>0.3094130431926196</v>
       </c>
       <c r="J16" t="n">
-        <v>0.1283435476781899</v>
+        <v>0.1095351415236986</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2375368230368738</v>
+        <v>0.2094740923581591</v>
       </c>
       <c r="L16" t="n">
-        <v>1.966418489920573</v>
+        <v>0.9288032815129885</v>
       </c>
       <c r="M16" t="n">
-        <v>0.4804479781669767</v>
+        <v>0.4227038410282311</v>
       </c>
       <c r="N16" t="n">
-        <v>1.165692311011783</v>
+        <v>1.128257273528586</v>
       </c>
       <c r="O16" t="n">
-        <v>0.500901643261967</v>
+        <v>0.4406992186583824</v>
       </c>
       <c r="P16" t="n">
-        <v>60.93214528989861</v>
+        <v>61.44433393824434</v>
       </c>
       <c r="Q16" t="n">
-        <v>96.27954421107643</v>
+        <v>96.79173285942215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_15</t>
+          <t>model_9_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9658547254612582</v>
+        <v>0.973003578797543</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7994576120081009</v>
+        <v>0.8537805198098862</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7824247713288186</v>
+        <v>0.9472049027267017</v>
       </c>
       <c r="E17" t="n">
-        <v>0.808091257060549</v>
+        <v>0.9908637005672869</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9126713660965466</v>
+        <v>0.9777797617958361</v>
       </c>
       <c r="G17" t="n">
-        <v>0.2283296080650995</v>
+        <v>0.1805251928879198</v>
       </c>
       <c r="H17" t="n">
-        <v>1.341027871914618</v>
+        <v>0.9777703373100891</v>
       </c>
       <c r="I17" t="n">
-        <v>0.3525731817117063</v>
+        <v>0.3053604691786773</v>
       </c>
       <c r="J17" t="n">
-        <v>0.126098194915251</v>
+        <v>0.1109534166113377</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2393356883134787</v>
+        <v>0.2081569428950075</v>
       </c>
       <c r="L17" t="n">
-        <v>1.950440546101095</v>
+        <v>0.9423462575831572</v>
       </c>
       <c r="M17" t="n">
-        <v>0.477838474868966</v>
+        <v>0.4248825636430846</v>
       </c>
       <c r="N17" t="n">
-        <v>1.163897317785961</v>
+        <v>1.129582821771794</v>
       </c>
       <c r="O17" t="n">
-        <v>0.4981810480061435</v>
+        <v>0.4429706940055279</v>
       </c>
       <c r="P17" t="n">
-        <v>60.95393008912895</v>
+        <v>61.42376987632463</v>
       </c>
       <c r="Q17" t="n">
-        <v>96.30132901030676</v>
+        <v>96.77116879750244</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_16</t>
+          <t>model_9_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9662122494999384</v>
+        <v>0.9727085221878041</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7991370051858951</v>
+        <v>0.8533658548298105</v>
       </c>
       <c r="D18" t="n">
-        <v>0.7788047221618597</v>
+        <v>0.9478546713547588</v>
       </c>
       <c r="E18" t="n">
-        <v>0.8110827360328476</v>
+        <v>0.9907298639429917</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9119597524309511</v>
+        <v>0.9778935994455665</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2259388431721976</v>
+        <v>0.1824982377958542</v>
       </c>
       <c r="H18" t="n">
-        <v>1.343171771210967</v>
+        <v>0.9805432039412117</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3584393469941357</v>
+        <v>0.3016022858743833</v>
       </c>
       <c r="J18" t="n">
-        <v>0.1241325726473129</v>
+        <v>0.1125787607501375</v>
       </c>
       <c r="K18" t="n">
-        <v>0.2412859598207243</v>
+        <v>0.2070905233122604</v>
       </c>
       <c r="L18" t="n">
-        <v>1.93463780945875</v>
+        <v>0.9560478760394575</v>
       </c>
       <c r="M18" t="n">
-        <v>0.4753302464310446</v>
+        <v>0.4271981247569495</v>
       </c>
       <c r="N18" t="n">
-        <v>1.162181202400296</v>
+        <v>1.13099909349854</v>
       </c>
       <c r="O18" t="n">
-        <v>0.495566039090871</v>
+        <v>0.4453848333498823</v>
       </c>
       <c r="P18" t="n">
-        <v>60.97498184352573</v>
+        <v>61.40202952383868</v>
       </c>
       <c r="Q18" t="n">
-        <v>96.32238076470354</v>
+        <v>96.74942844501649</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_17</t>
+          <t>model_9_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9665541295095147</v>
+        <v>0.9723940401081371</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7988116274905706</v>
+        <v>0.8529338479719718</v>
       </c>
       <c r="D19" t="n">
-        <v>0.775174693449838</v>
+        <v>0.948451469433549</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8136683469939361</v>
+        <v>0.9905785955553651</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9111965344868848</v>
+        <v>0.977979785708495</v>
       </c>
       <c r="G19" t="n">
-        <v>0.223652689973948</v>
+        <v>0.1846011809106442</v>
       </c>
       <c r="H19" t="n">
-        <v>1.345347573357829</v>
+        <v>0.983432035788788</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3643216837864208</v>
+        <v>0.2981504778324179</v>
       </c>
       <c r="J19" t="n">
-        <v>0.1224336355902909</v>
+        <v>0.1144158004133038</v>
       </c>
       <c r="K19" t="n">
-        <v>0.2433776596883559</v>
+        <v>0.2062831391228608</v>
       </c>
       <c r="L19" t="n">
-        <v>1.918992493240034</v>
+        <v>0.9699038831493937</v>
       </c>
       <c r="M19" t="n">
-        <v>0.472919327130905</v>
+        <v>0.4296523954438567</v>
       </c>
       <c r="N19" t="n">
-        <v>1.160540178354329</v>
+        <v>1.132508607480942</v>
       </c>
       <c r="O19" t="n">
-        <v>0.4930524819648336</v>
+        <v>0.4479435874209717</v>
       </c>
       <c r="P19" t="n">
-        <v>60.99532184314042</v>
+        <v>61.37911511960286</v>
       </c>
       <c r="Q19" t="n">
-        <v>96.34272076431823</v>
+        <v>96.72651404078067</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_18</t>
+          <t>model_9_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9668808115576399</v>
+        <v>0.9720595115688638</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7984817820190081</v>
+        <v>0.8524839482424845</v>
       </c>
       <c r="D20" t="n">
-        <v>0.7715348705365156</v>
+        <v>0.94899283160954</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8158719384697209</v>
+        <v>0.9904094090632324</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9103846259318139</v>
+        <v>0.9780372442732856</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2214681656139018</v>
+        <v>0.186838174793127</v>
       </c>
       <c r="H20" t="n">
-        <v>1.347553251544966</v>
+        <v>0.9864405173514671</v>
       </c>
       <c r="I20" t="n">
-        <v>0.370219891745364</v>
+        <v>0.2950193043599938</v>
       </c>
       <c r="J20" t="n">
-        <v>0.120985713504142</v>
+        <v>0.1164704418449767</v>
       </c>
       <c r="K20" t="n">
-        <v>0.245602802624753</v>
+        <v>0.2057448731024852</v>
       </c>
       <c r="L20" t="n">
-        <v>1.90351723115965</v>
+        <v>0.9839170150826985</v>
       </c>
       <c r="M20" t="n">
-        <v>0.4706040433463166</v>
+        <v>0.4322478164122139</v>
       </c>
       <c r="N20" t="n">
-        <v>1.158972104523328</v>
+        <v>1.134114344469454</v>
       </c>
       <c r="O20" t="n">
-        <v>0.4906386317562371</v>
+        <v>0.4506495008332141</v>
       </c>
       <c r="P20" t="n">
-        <v>61.01495284331864</v>
+        <v>61.35502482443771</v>
       </c>
       <c r="Q20" t="n">
-        <v>96.36235176449645</v>
+        <v>96.70242374561553</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_19</t>
+          <t>model_9_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9671928619713036</v>
+        <v>0.9717043348716161</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7981478192276154</v>
+        <v>0.8520155895305432</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7678882225330882</v>
+        <v>0.9494763194089294</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8177114238413488</v>
+        <v>0.9902217883928512</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9095270519351539</v>
+        <v>0.9780648878544057</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2193814830608734</v>
+        <v>0.1892132430030609</v>
       </c>
       <c r="H21" t="n">
-        <v>1.349786462268766</v>
+        <v>0.989572434214812</v>
       </c>
       <c r="I21" t="n">
-        <v>0.3761291595282977</v>
+        <v>0.2922228692952101</v>
       </c>
       <c r="J21" t="n">
-        <v>0.1197770359765712</v>
+        <v>0.1187489523687406</v>
       </c>
       <c r="K21" t="n">
-        <v>0.2479530977524344</v>
+        <v>0.2054859108319753</v>
       </c>
       <c r="L21" t="n">
-        <v>1.888202413409732</v>
+        <v>0.9980933562356603</v>
       </c>
       <c r="M21" t="n">
-        <v>0.4683817706325401</v>
+        <v>0.4349864860004974</v>
       </c>
       <c r="N21" t="n">
-        <v>1.157474262537743</v>
+        <v>1.135819192616243</v>
       </c>
       <c r="O21" t="n">
-        <v>0.4883217522922965</v>
+        <v>0.4535047612556983</v>
       </c>
       <c r="P21" t="n">
-        <v>61.03388626556887</v>
+        <v>61.32976126016622</v>
       </c>
       <c r="Q21" t="n">
-        <v>96.38128518674668</v>
+        <v>96.67716018134404</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_20</t>
+          <t>model_9_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9674908814019021</v>
+        <v>0.9713278026752719</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7978100118297629</v>
+        <v>0.8515281853353995</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7642367570935329</v>
+        <v>0.9498994099451643</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8192053505112633</v>
+        <v>0.990015208697081</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9086266294279554</v>
+        <v>0.9780615974207072</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2173886257562077</v>
+        <v>0.1917311155337864</v>
       </c>
       <c r="H22" t="n">
-        <v>1.352045381893666</v>
+        <v>0.9928317083120279</v>
       </c>
       <c r="I22" t="n">
-        <v>0.3820462338009393</v>
+        <v>0.2897757647093247</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1187954159965403</v>
+        <v>0.1212577058544419</v>
       </c>
       <c r="K22" t="n">
-        <v>0.2504208248987398</v>
+        <v>0.2055167352818833</v>
       </c>
       <c r="L22" t="n">
-        <v>1.873047175194744</v>
+        <v>1.01243002895913</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4662495316418105</v>
+        <v>0.4378711174921068</v>
       </c>
       <c r="N22" t="n">
-        <v>1.15604376927087</v>
+        <v>1.137626547158695</v>
       </c>
       <c r="O22" t="n">
-        <v>0.4860987394733883</v>
+        <v>0.4565121974819159</v>
       </c>
       <c r="P22" t="n">
-        <v>61.05213725018481</v>
+        <v>61.30332265683008</v>
       </c>
       <c r="Q22" t="n">
-        <v>96.39953617136263</v>
+        <v>96.65072157800789</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_21</t>
+          <t>model_9_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9677753641052729</v>
+        <v>0.9709293146205874</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7974685851378478</v>
+        <v>0.8510211673686711</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7605819469563941</v>
+        <v>0.9502596409092704</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8203726302026141</v>
+        <v>0.9897892235703184</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9076860608738019</v>
+        <v>0.9780263234863221</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2154862886088448</v>
+        <v>0.1943958069903302</v>
       </c>
       <c r="H23" t="n">
-        <v>1.354328503754627</v>
+        <v>0.9962221397901445</v>
       </c>
       <c r="I23" t="n">
-        <v>0.3879687280410838</v>
+        <v>0.2876922323001941</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1180284271674435</v>
+        <v>0.1240021235590415</v>
       </c>
       <c r="K23" t="n">
-        <v>0.2529985776042637</v>
+        <v>0.2058471779296178</v>
       </c>
       <c r="L23" t="n">
-        <v>1.85805169444572</v>
+        <v>1.02693041781678</v>
       </c>
       <c r="M23" t="n">
-        <v>0.4642050070915271</v>
+        <v>0.4409033987058051</v>
       </c>
       <c r="N23" t="n">
-        <v>1.15467825229469</v>
+        <v>1.13953928982118</v>
       </c>
       <c r="O23" t="n">
-        <v>0.48396717528025</v>
+        <v>0.4596735691845689</v>
       </c>
       <c r="P23" t="n">
-        <v>61.06971599481518</v>
+        <v>61.27571791233639</v>
       </c>
       <c r="Q23" t="n">
-        <v>96.41711491599298</v>
+        <v>96.6231168335142</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_22</t>
+          <t>model_9_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9680467632995781</v>
+        <v>0.9705082281178359</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7971238533938532</v>
+        <v>0.8504938453450189</v>
       </c>
       <c r="D24" t="n">
-        <v>0.7569249048574136</v>
+        <v>0.9505545033540533</v>
       </c>
       <c r="E24" t="n">
-        <v>0.821228123401285</v>
+        <v>0.9895431999869934</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9067074566587485</v>
+        <v>0.9779578812037809</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2136714409468481</v>
+        <v>0.1972116143731542</v>
       </c>
       <c r="H24" t="n">
-        <v>1.356633726514063</v>
+        <v>0.9997483445904009</v>
       </c>
       <c r="I24" t="n">
-        <v>0.3938948390986981</v>
+        <v>0.2859867835155088</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1174663050542852</v>
+        <v>0.1269898930972351</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2556805720764916</v>
+        <v>0.2064883383063719</v>
       </c>
       <c r="L24" t="n">
-        <v>1.84321050332414</v>
+        <v>1.041595727163742</v>
       </c>
       <c r="M24" t="n">
-        <v>0.4622460826733398</v>
+        <v>0.4440851431574289</v>
       </c>
       <c r="N24" t="n">
-        <v>1.153375536162025</v>
+        <v>1.141560505034388</v>
       </c>
       <c r="O24" t="n">
-        <v>0.481924855394048</v>
+        <v>0.4629907670846173</v>
       </c>
       <c r="P24" t="n">
-        <v>61.08663153290836</v>
+        <v>61.24695588426468</v>
       </c>
       <c r="Q24" t="n">
-        <v>96.43403045408618</v>
+        <v>96.59435480544249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_23</t>
+          <t>model_9_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9683056426455785</v>
+        <v>0.9700638211690911</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7967760167554461</v>
+        <v>0.8499455216410449</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7532687958166204</v>
+        <v>0.9507813759130238</v>
       </c>
       <c r="E25" t="n">
-        <v>0.8217898346776562</v>
+        <v>0.9892765385763563</v>
       </c>
       <c r="F25" t="n">
-        <v>0.905693910801571</v>
+        <v>0.9778550728354553</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2119403135681128</v>
+        <v>0.2001833656857167</v>
       </c>
       <c r="H25" t="n">
-        <v>1.358959711716732</v>
+        <v>1.003414987723674</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3998194381675814</v>
+        <v>0.2846745800225901</v>
       </c>
       <c r="J25" t="n">
-        <v>0.1170972193267199</v>
+        <v>0.1302282933714901</v>
       </c>
       <c r="K25" t="n">
-        <v>0.2584583287471506</v>
+        <v>0.20745143669704</v>
       </c>
       <c r="L25" t="n">
-        <v>1.828522557237324</v>
+        <v>1.056427225714174</v>
       </c>
       <c r="M25" t="n">
-        <v>0.460369757442985</v>
+        <v>0.4474185576009523</v>
       </c>
       <c r="N25" t="n">
-        <v>1.152132915301223</v>
+        <v>1.143693658388363</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4799686511141082</v>
+        <v>0.4664660918821206</v>
       </c>
       <c r="P25" t="n">
-        <v>61.10290116744588</v>
+        <v>61.21704300807198</v>
       </c>
       <c r="Q25" t="n">
-        <v>96.45030008862369</v>
+        <v>96.5644419292498</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_9_9_24</t>
+          <t>model_9_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9685523673663695</v>
+        <v>0.9695953441703538</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7964253231235378</v>
+        <v>0.8493755089940169</v>
       </c>
       <c r="D26" t="n">
-        <v>0.7496147438567327</v>
+        <v>0.9509374992609596</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8220718074436524</v>
+        <v>0.9889886040858523</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9046474390773739</v>
+        <v>0.977716634796831</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2102904642241209</v>
+        <v>0.2033160735334116</v>
       </c>
       <c r="H26" t="n">
-        <v>1.361304801648098</v>
+        <v>1.007226664919016</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4057407038075433</v>
+        <v>0.2837715814254169</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1169119424275919</v>
+        <v>0.1337250390415456</v>
       </c>
       <c r="K26" t="n">
-        <v>0.2613263231175676</v>
+        <v>0.2087483102334813</v>
       </c>
       <c r="L26" t="n">
-        <v>1.813988763859405</v>
+        <v>1.071428479831246</v>
       </c>
       <c r="M26" t="n">
-        <v>0.4585743824333419</v>
+        <v>0.450905836659287</v>
       </c>
       <c r="N26" t="n">
-        <v>1.150948636641426</v>
+        <v>1.145942347982302</v>
       </c>
       <c r="O26" t="n">
-        <v>0.478096843273366</v>
+        <v>0.4701018316296314</v>
       </c>
       <c r="P26" t="n">
-        <v>61.11853108196284</v>
+        <v>61.18598699669535</v>
       </c>
       <c r="Q26" t="n">
-        <v>96.46593000314066</v>
+        <v>96.53338591787316</v>
       </c>
     </row>
   </sheetData>
